--- a/team_specific_matrix/North Dakota St._B.xlsx
+++ b/team_specific_matrix/North Dakota St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1924882629107981</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="C2">
-        <v>0.5774647887323944</v>
+        <v>0.5542635658914729</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009389671361502348</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1596244131455399</v>
+        <v>0.1589147286821705</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06103286384976526</v>
+        <v>0.07364341085271318</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02439024390243903</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="C3">
-        <v>0.008130081300813009</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03252032520325204</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8048780487804879</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1300813008130081</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06521739130434782</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02173913043478261</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P4">
-        <v>0.6739130434782609</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2391304347826087</v>
+        <v>0.3035714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05442176870748299</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02040816326530612</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07482993197278912</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2040816326530612</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0272108843537415</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2380952380952381</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="R6">
         <v>0.04761904761904762</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3121693121693122</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1041666666666667</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04861111111111111</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="E7">
-        <v>0.006944444444444444</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="F7">
-        <v>0.06944444444444445</v>
+        <v>0.06077348066298342</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09027777777777778</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02083333333333333</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1944444444444444</v>
+        <v>0.2044198895027624</v>
       </c>
       <c r="R7">
-        <v>0.1041666666666667</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="S7">
-        <v>0.3611111111111111</v>
+        <v>0.3867403314917127</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1053984575835476</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01542416452442159</v>
+        <v>0.01622718052738337</v>
       </c>
       <c r="E8">
-        <v>0.002570694087403599</v>
+        <v>0.002028397565922921</v>
       </c>
       <c r="F8">
-        <v>0.06426735218508997</v>
+        <v>0.06288032454361055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1105398457583548</v>
+        <v>0.1054766734279919</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01799485861182519</v>
+        <v>0.01419878296146045</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2210796915167095</v>
+        <v>0.2251521298174442</v>
       </c>
       <c r="R8">
-        <v>0.08483290488431877</v>
+        <v>0.08316430020283976</v>
       </c>
       <c r="S8">
-        <v>0.3778920308483291</v>
+        <v>0.3874239350912779</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1149425287356322</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01724137931034483</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06321839080459771</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06321839080459771</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04022988505747126</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1781609195402299</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="R9">
-        <v>0.08620689655172414</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="S9">
-        <v>0.4367816091954023</v>
+        <v>0.4403669724770642</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08814270724029381</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03357817418677859</v>
+        <v>0.03150912106135987</v>
       </c>
       <c r="E10">
-        <v>0.001049317943336831</v>
+        <v>0.001658374792703151</v>
       </c>
       <c r="F10">
-        <v>0.05141657922350472</v>
+        <v>0.04975124378109453</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1259181532004197</v>
+        <v>0.1243781094527363</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02728226652675761</v>
+        <v>0.02404643449419569</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.229800629590766</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R10">
-        <v>0.07450157397691501</v>
+        <v>0.08374792703150911</v>
       </c>
       <c r="S10">
-        <v>0.3683105981112277</v>
+        <v>0.3781094527363184</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1351351351351351</v>
+        <v>0.1312056737588652</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0990990990990991</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="K11">
-        <v>0.1936936936936937</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="L11">
-        <v>0.5495495495495496</v>
+        <v>0.5567375886524822</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02252252252252252</v>
+        <v>0.03191489361702127</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7538461538461538</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1615384615384615</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="K12">
-        <v>0.007692307692307693</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="L12">
-        <v>0.03846153846153846</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03846153846153846</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5945945945945946</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3513513513513514</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02094240837696335</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1884816753926702</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="I15">
-        <v>0.0418848167539267</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J15">
-        <v>0.3193717277486911</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.07853403141361257</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005235602094240838</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="N15">
-        <v>0.005235602094240838</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O15">
-        <v>0.1099476439790576</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2303664921465969</v>
+        <v>0.2164502164502164</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2292993630573248</v>
+        <v>0.2108108108108108</v>
       </c>
       <c r="I16">
-        <v>0.07643312101910828</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="J16">
-        <v>0.4331210191082803</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="K16">
-        <v>0.1273885350318471</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02547770700636943</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05095541401273886</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.05732484076433121</v>
+        <v>0.07567567567567568</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0100250626566416</v>
+        <v>0.01004016064257028</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2280701754385965</v>
+        <v>0.2309236947791165</v>
       </c>
       <c r="I17">
-        <v>0.1027568922305764</v>
+        <v>0.09839357429718876</v>
       </c>
       <c r="J17">
-        <v>0.3734335839598997</v>
+        <v>0.3755020080321285</v>
       </c>
       <c r="K17">
-        <v>0.08521303258145363</v>
+        <v>0.0823293172690763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03007518796992481</v>
+        <v>0.02610441767068273</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07769423558897243</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09273182957393483</v>
+        <v>0.09839357429718876</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007194244604316547</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.158273381294964</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="I18">
-        <v>0.1151079136690648</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="J18">
-        <v>0.4460431654676259</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="K18">
-        <v>0.09352517985611511</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02877697841726619</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09352517985611511</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05755395683453238</v>
+        <v>0.07103825136612021</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01101321585903084</v>
+        <v>0.0151006711409396</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2202643171806167</v>
+        <v>0.2197986577181208</v>
       </c>
       <c r="I19">
-        <v>0.1046255506607929</v>
+        <v>0.1023489932885906</v>
       </c>
       <c r="J19">
-        <v>0.3909691629955947</v>
+        <v>0.3783557046979866</v>
       </c>
       <c r="K19">
-        <v>0.09691629955947137</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01762114537444934</v>
+        <v>0.01593959731543624</v>
       </c>
       <c r="N19">
-        <v>0.001101321585903084</v>
+        <v>0.0008389261744966443</v>
       </c>
       <c r="O19">
-        <v>0.05286343612334802</v>
+        <v>0.05453020134228188</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1046255506607929</v>
+        <v>0.1124161073825503</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Dakota St._B.xlsx
+++ b/team_specific_matrix/North Dakota St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2015503875968992</v>
+        <v>0.1941391941391941</v>
       </c>
       <c r="C2">
-        <v>0.5542635658914729</v>
+        <v>0.5677655677655677</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01162790697674419</v>
+        <v>0.01465201465201465</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1589147286821705</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07364341085271318</v>
+        <v>0.0695970695970696</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02068965517241379</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="C3">
-        <v>0.01379310344827586</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02758620689655172</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8</v>
+        <v>0.802547770700637</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1379310344827586</v>
+        <v>0.1401273885350318</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05357142857142857</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01785714285714286</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3035714285714285</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02645502645502645</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07936507936507936</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2380952380952381</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02116402116402116</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2275132275132275</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R6">
-        <v>0.04761904761904762</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="S6">
-        <v>0.3121693121693122</v>
+        <v>0.3091787439613526</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09392265193370165</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03867403314917127</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="E7">
-        <v>0.005524861878453038</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F7">
-        <v>0.06077348066298342</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08839779005524862</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02209944751381215</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2044198895027624</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="R7">
-        <v>0.09944751381215469</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="S7">
-        <v>0.3867403314917127</v>
+        <v>0.3814432989690721</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.103448275862069</v>
+        <v>0.09506398537477148</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01622718052738337</v>
+        <v>0.01645338208409506</v>
       </c>
       <c r="E8">
-        <v>0.002028397565922921</v>
+        <v>0.001828153564899452</v>
       </c>
       <c r="F8">
-        <v>0.06288032454361055</v>
+        <v>0.05850091407678245</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1054766734279919</v>
+        <v>0.1078610603290676</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01419878296146045</v>
+        <v>0.01462522851919561</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2251521298174442</v>
+        <v>0.2193784277879342</v>
       </c>
       <c r="R8">
-        <v>0.08316430020283976</v>
+        <v>0.08775137111517367</v>
       </c>
       <c r="S8">
-        <v>0.3874239350912779</v>
+        <v>0.3985374771480805</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1100917431192661</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01834862385321101</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06422018348623854</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06880733944954129</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03669724770642202</v>
+        <v>0.03347280334728033</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1834862385321101</v>
+        <v>0.1924686192468619</v>
       </c>
       <c r="R9">
-        <v>0.07798165137614679</v>
+        <v>0.08786610878661087</v>
       </c>
       <c r="S9">
-        <v>0.4403669724770642</v>
+        <v>0.4267782426778243</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0845771144278607</v>
+        <v>0.08528301886792453</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03150912106135987</v>
+        <v>0.03094339622641509</v>
       </c>
       <c r="E10">
-        <v>0.001658374792703151</v>
+        <v>0.001509433962264151</v>
       </c>
       <c r="F10">
-        <v>0.04975124378109453</v>
+        <v>0.05056603773584906</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1243781094527363</v>
+        <v>0.1184905660377358</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02404643449419569</v>
+        <v>0.02339622641509434</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2222222222222222</v>
+        <v>0.2286792452830189</v>
       </c>
       <c r="R10">
-        <v>0.08374792703150911</v>
+        <v>0.08679245283018867</v>
       </c>
       <c r="S10">
-        <v>0.3781094527363184</v>
+        <v>0.3743396226415094</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1312056737588652</v>
+        <v>0.1353135313531353</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09574468085106383</v>
+        <v>0.0924092409240924</v>
       </c>
       <c r="K11">
-        <v>0.1843971631205674</v>
+        <v>0.1881188118811881</v>
       </c>
       <c r="L11">
-        <v>0.5567375886524822</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03191489361702127</v>
+        <v>0.0297029702970297</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7636363636363637</v>
+        <v>0.7570621468926554</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1636363636363636</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="K12">
-        <v>0.006060606060606061</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="L12">
-        <v>0.0303030303030303</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03636363636363636</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6097560975609756</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3414634146341464</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01731601731601732</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1948051948051948</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I15">
-        <v>0.04761904761904762</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="K15">
-        <v>0.09090909090909091</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004329004329004329</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="N15">
-        <v>0.004329004329004329</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2164502164502164</v>
+        <v>0.2063492063492063</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005405405405405406</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2108108108108108</v>
+        <v>0.2160804020100502</v>
       </c>
       <c r="I16">
-        <v>0.07027027027027027</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="J16">
-        <v>0.4324324324324325</v>
+        <v>0.4321608040201005</v>
       </c>
       <c r="K16">
-        <v>0.1297297297297297</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02162162162162162</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05405405405405406</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07567567567567568</v>
+        <v>0.07537688442211055</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01004016064257028</v>
+        <v>0.009041591320072333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2309236947791165</v>
+        <v>0.2296564195298373</v>
       </c>
       <c r="I17">
-        <v>0.09839357429718876</v>
+        <v>0.1030741410488246</v>
       </c>
       <c r="J17">
-        <v>0.3755020080321285</v>
+        <v>0.3869801084990959</v>
       </c>
       <c r="K17">
-        <v>0.0823293172690763</v>
+        <v>0.081374321880651</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02610441767068273</v>
+        <v>0.02350813743218806</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0783132530120482</v>
+        <v>0.07414104882459313</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09839357429718876</v>
+        <v>0.09222423146473779</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01639344262295082</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1530054644808743</v>
+        <v>0.1611374407582938</v>
       </c>
       <c r="I18">
-        <v>0.1147540983606557</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="J18">
-        <v>0.459016393442623</v>
+        <v>0.4502369668246445</v>
       </c>
       <c r="K18">
-        <v>0.08196721311475409</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02185792349726776</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08196721311475409</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07103825136612021</v>
+        <v>0.07582938388625593</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0151006711409396</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2197986577181208</v>
+        <v>0.2237654320987654</v>
       </c>
       <c r="I19">
-        <v>0.1023489932885906</v>
+        <v>0.1003086419753086</v>
       </c>
       <c r="J19">
-        <v>0.3783557046979866</v>
+        <v>0.3780864197530864</v>
       </c>
       <c r="K19">
-        <v>0.1006711409395973</v>
+        <v>0.09799382716049383</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01593959731543624</v>
+        <v>0.0154320987654321</v>
       </c>
       <c r="N19">
-        <v>0.0008389261744966443</v>
+        <v>0.0007716049382716049</v>
       </c>
       <c r="O19">
-        <v>0.05453020134228188</v>
+        <v>0.05478395061728395</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1124161073825503</v>
+        <v>0.1126543209876543</v>
       </c>
     </row>
   </sheetData>
